--- a/March'21/28.03.2021/Daily Sales Info..xlsx
+++ b/March'21/28.03.2021/Daily Sales Info..xlsx
@@ -41526,8 +41526,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42538,7 +42538,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="29">
-        <v>900</v>
+        <v>926</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -42552,15 +42552,15 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>926</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="2"/>
-        <v>3765</v>
+        <v>3791</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="3"/>
-        <v>24.75</v>
+        <v>25.465</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26">
@@ -42568,20 +42568,20 @@
       </c>
       <c r="R20" s="29">
         <f t="shared" si="4"/>
-        <v>3640.25</v>
+        <v>3665.5349999999999</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="5"/>
-        <v>8.5499999999999989</v>
+        <v>8.7970000000000006</v>
       </c>
       <c r="T20" s="55">
         <f t="shared" si="6"/>
-        <v>-91.45</v>
+        <v>-91.203000000000003</v>
       </c>
       <c r="U20" s="94"/>
       <c r="V20" s="97">
         <f t="shared" si="0"/>
-        <v>3640.25</v>
+        <v>3665.5349999999999</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -42991,7 +42991,7 @@
       <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
-        <v>195299</v>
+        <v>195325</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="7"/>
@@ -43027,15 +43027,15 @@
       </c>
       <c r="M28" s="61">
         <f t="shared" si="8"/>
-        <v>204399</v>
+        <v>204425</v>
       </c>
       <c r="N28" s="61">
         <f t="shared" si="8"/>
-        <v>221953</v>
+        <v>221979</v>
       </c>
       <c r="O28" s="62">
         <f t="shared" si="8"/>
-        <v>5620.9724999999999</v>
+        <v>5621.6875</v>
       </c>
       <c r="P28" s="61">
         <f t="shared" si="8"/>
@@ -43047,15 +43047,15 @@
       </c>
       <c r="R28" s="61">
         <f t="shared" si="8"/>
-        <v>214638.02750000003</v>
+        <v>214663.31250000003</v>
       </c>
       <c r="S28" s="61">
         <f t="shared" si="8"/>
-        <v>1941.7904999999996</v>
+        <v>1942.0374999999997</v>
       </c>
       <c r="T28" s="77">
         <f t="shared" si="8"/>
-        <v>247.79049999999995</v>
+        <v>248.03749999999991</v>
       </c>
       <c r="U28" s="96">
         <f>SUM(U7:U27)</f>
@@ -43063,7 +43063,7 @@
       </c>
       <c r="V28" s="65">
         <f>SUM(V7:V27)</f>
-        <v>213936.02750000003</v>
+        <v>213961.31250000003</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -43074,7 +43074,7 @@
       <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>607028</v>
+        <v>607002</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="9">E4+E5-E28</f>
@@ -43397,8 +43397,8 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43491,7 +43491,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>607028</v>
+        <v>607002</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
@@ -44941,7 +44941,7 @@
       <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>684480</v>
+        <v>684454</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="9">E4+E5-E28</f>
@@ -45336,7 +45336,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>684480</v>
+        <v>684454</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
@@ -46514,7 +46514,7 @@
       <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>684480</v>
+        <v>684454</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -46792,8 +46792,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46886,7 +46886,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>684480</v>
+        <v>684454</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
@@ -48216,7 +48216,7 @@
       <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>485191</v>
+        <v>485165</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -48494,8 +48494,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48588,7 +48588,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>485191</v>
+        <v>485165</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
@@ -49114,7 +49114,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="29">
-        <v>15634</v>
+        <v>15636</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -49126,15 +49126,15 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>15634</v>
+        <v>15636</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>15634</v>
+        <v>15636</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>429.935</v>
+        <v>429.99</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26">
@@ -49142,15 +49142,15 @@
       </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>15058.065000000001</v>
+        <v>15060.01</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>148.523</v>
+        <v>148.542</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>2.5229999999999961</v>
+        <v>2.5420000000000016</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -49871,7 +49871,7 @@
       <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>206399</v>
+        <v>206401</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -49907,15 +49907,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>229759</v>
+        <v>229761</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>253081</v>
+        <v>253083</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>6318.3724999999995</v>
+        <v>6318.4274999999998</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -49927,15 +49927,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>243767.62749999994</v>
+        <v>243769.57249999995</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>2182.7105000000001</v>
+        <v>2182.7295000000004</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>-812.28949999999986</v>
+        <v>-812.27049999999986</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -49946,7 +49946,7 @@
       <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>590480</v>
+        <v>590452</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -50318,7 +50318,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>590480</v>
+        <v>590452</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -51496,7 +51496,7 @@
       <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>590480</v>
+        <v>590452</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -53590,7 +53590,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>590480</v>
+        <v>590452</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -54768,7 +54768,7 @@
       <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>590480</v>
+        <v>590452</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -55140,7 +55140,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>590480</v>
+        <v>590452</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -56318,7 +56318,7 @@
       <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>590480</v>
+        <v>590452</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -57390,7 +57390,7 @@
       </c>
       <c r="D14" s="21">
         <f>'1'!D14+'2'!D14+'3'!D14+'4'!D14+'5'!D14+'6'!D14+'7'!D14+'8'!D14+'9'!D14+'10'!D14+'11'!D14+'12'!D14+'13'!D14+'14'!D14+'15'!D14+'16'!D14+'17'!D14+'18'!D14+'19'!D14+'20'!D14+'21'!D14+'22'!D14+'23'!D14+'24'!D14+'25'!D14+'26'!D14+'27'!D14+'28'!D14+'29'!D14+'30'!D14+'31'!D14</f>
-        <v>353050</v>
+        <v>353052</v>
       </c>
       <c r="E14" s="21">
         <f>'1'!E14+'2'!E14+'3'!E14+'4'!E14+'5'!E14+'6'!E14+'7'!E14+'8'!E14+'9'!E14+'10'!E14+'11'!E14+'12'!E14+'13'!E14+'14'!E14+'15'!E14+'16'!E14+'17'!E14+'18'!E14+'19'!E14+'20'!E14+'21'!E14+'22'!E14+'23'!E14+'24'!E14+'25'!E14+'26'!E14+'27'!E14+'28'!E14+'29'!E14+'30'!E14+'31'!E14</f>
@@ -57426,15 +57426,15 @@
       </c>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>381690</v>
+        <v>381692</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>399790</v>
+        <v>399792</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>10496.475</v>
+        <v>10496.53</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26">
@@ -57443,15 +57443,15 @@
       </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>387051.52500000002</v>
+        <v>387053.47</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>3626.0549999999998</v>
+        <v>3626.0740000000001</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>1384.0549999999998</v>
+        <v>1384.0740000000001</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -57846,7 +57846,7 @@
       </c>
       <c r="D20" s="21">
         <f>'1'!D20+'2'!D20+'3'!D20+'4'!D20+'5'!D20+'6'!D20+'7'!D20+'8'!D20+'9'!D20+'10'!D20+'11'!D20+'12'!D20+'13'!D20+'14'!D20+'15'!D20+'16'!D20+'17'!D20+'18'!D20+'19'!D20+'20'!D20+'21'!D20+'22'!D20+'23'!D20+'24'!D20+'25'!D20+'26'!D20+'27'!D20+'28'!D20+'29'!D20+'30'!D20+'31'!D20</f>
-        <v>143178</v>
+        <v>143204</v>
       </c>
       <c r="E20" s="21">
         <f>'1'!E20+'2'!E20+'3'!E20+'4'!E20+'5'!E20+'6'!E20+'7'!E20+'8'!E20+'9'!E20+'10'!E20+'11'!E20+'12'!E20+'13'!E20+'14'!E20+'15'!E20+'16'!E20+'17'!E20+'18'!E20+'19'!E20+'20'!E20+'21'!E20+'22'!E20+'23'!E20+'24'!E20+'25'!E20+'26'!E20+'27'!E20+'28'!E20+'29'!E20+'30'!E20+'31'!E20</f>
@@ -57882,15 +57882,15 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" si="0"/>
-        <v>152828</v>
+        <v>152854</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>184781</v>
+        <v>184807</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>4202.7700000000004</v>
+        <v>4203.4849999999997</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26">
@@ -57899,15 +57899,15 @@
       </c>
       <c r="R20" s="24">
         <f t="shared" si="3"/>
-        <v>178018.23</v>
+        <v>178043.51500000001</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="4"/>
-        <v>1451.866</v>
+        <v>1452.1130000000001</v>
       </c>
       <c r="T20" s="27">
         <f t="shared" si="5"/>
-        <v>-1108.134</v>
+        <v>-1107.8869999999999</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -58450,7 +58450,7 @@
       <c r="C28" s="103"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>4735515</v>
+        <v>4735543</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -58486,15 +58486,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>5119325</v>
+        <v>5119353</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>5875904</v>
+        <v>5875932</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>140781.4375</v>
+        <v>140782.20749999999</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -58506,15 +58506,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>5690825.5625000009</v>
+        <v>5690852.7925000004</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>48633.587499999987</v>
+        <v>48633.85349999999</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>4336.5874999999987</v>
+        <v>4336.8534999999983</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -58525,7 +58525,7 @@
       <c r="C29" s="106"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>590480</v>
+        <v>590452</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
